--- a/Week9/MarketExit1516-2.xlsx
+++ b/Week9/MarketExit1516-2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guanz\Desktop\JIW2\Week9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{40308FEF-5C73-489F-85F2-7DAD4B860AED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188E4614-BD3C-4C72-AAE2-983077B1155E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="7993" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="7993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketExit1516-2" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="missing data 2016" sheetId="4" r:id="rId3"/>
     <sheet name="missing data 2015" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -1591,7 +1591,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2425,11 +2425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB364"/>
   <sheetViews>
-    <sheetView topLeftCell="F347" workbookViewId="0">
-      <selection activeCell="L364" sqref="L364:O364"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J354" sqref="J354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -32560,10 +32560,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A23:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C78" workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
@@ -35784,7 +35784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37415,7 +37415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
